--- a/teaching/traditional_assets/database/data/greece/greece_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/greece/greece_entertainment.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0868</v>
+        <v>0.32</v>
       </c>
       <c r="G2">
-        <v>-0.2509505703422053</v>
+        <v>-0.006547251389746757</v>
       </c>
       <c r="H2">
-        <v>-0.2509505703422053</v>
+        <v>-0.006547251389746757</v>
       </c>
       <c r="I2">
-        <v>-0.3536121673003803</v>
+        <v>-0.0560840024706609</v>
       </c>
       <c r="J2">
-        <v>-0.3536121673003803</v>
+        <v>-0.0560840024706609</v>
       </c>
       <c r="K2">
-        <v>-5.45</v>
+        <v>-7.56</v>
       </c>
       <c r="L2">
-        <v>-0.1036121673003802</v>
+        <v>-0.04669549104385422</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.23</v>
+        <v>5.21</v>
       </c>
       <c r="V2">
-        <v>0.09787878787878788</v>
+        <v>0.1069815195071868</v>
       </c>
       <c r="W2">
-        <v>-0.9316239316239318</v>
+        <v>2.719424460431655</v>
       </c>
       <c r="X2">
-        <v>0.412187514122686</v>
+        <v>0.1885631981122214</v>
       </c>
       <c r="Y2">
-        <v>-1.343811445746618</v>
+        <v>2.530861262319433</v>
       </c>
       <c r="Z2">
-        <v>0.4696428571428572</v>
+        <v>1.833729754219051</v>
       </c>
       <c r="AA2">
-        <v>-0.1660714285714286</v>
+        <v>-0.1028429040661457</v>
       </c>
       <c r="AB2">
-        <v>0.1397314632422371</v>
+        <v>0.1029841616526407</v>
       </c>
       <c r="AC2">
-        <v>-0.3058028918136657</v>
+        <v>-0.2058270657187863</v>
       </c>
       <c r="AD2">
-        <v>113.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>113.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="AG2">
-        <v>110.57</v>
+        <v>65.19000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.7752043596730245</v>
+        <v>0.5910999160369438</v>
       </c>
       <c r="AI2">
-        <v>0.9887054735013032</v>
+        <v>0.9777777777777779</v>
       </c>
       <c r="AJ2">
-        <v>0.770146966636484</v>
+        <v>0.5723944156642374</v>
       </c>
       <c r="AK2">
-        <v>0.9883793689103424</v>
+        <v>0.9760443180116785</v>
       </c>
       <c r="AL2">
-        <v>6.64</v>
+        <v>8.32</v>
       </c>
       <c r="AM2">
-        <v>6.633999999999999</v>
+        <v>8.319000000000001</v>
       </c>
       <c r="AN2">
-        <v>-7.848275862068966</v>
+        <v>-32</v>
       </c>
       <c r="AO2">
-        <v>-2.801204819277109</v>
+        <v>-1.091346153846154</v>
       </c>
       <c r="AP2">
-        <v>-7.62551724137931</v>
+        <v>-29.63181818181819</v>
       </c>
       <c r="AQ2">
-        <v>-2.80373831775701</v>
+        <v>-1.091477341026566</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Audio Visual Enterprises S.A. (ATSE:AVE)</t>
+          <t>AVE S.A. (ATSE:AVE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0868</v>
+        <v>0.32</v>
       </c>
       <c r="G3">
-        <v>-0.2509505703422053</v>
+        <v>-0.006547251389746757</v>
       </c>
       <c r="H3">
-        <v>-0.2509505703422053</v>
+        <v>-0.006547251389746757</v>
       </c>
       <c r="I3">
-        <v>-0.3536121673003803</v>
+        <v>-0.0560840024706609</v>
       </c>
       <c r="J3">
-        <v>-0.3536121673003803</v>
+        <v>-0.0560840024706609</v>
       </c>
       <c r="K3">
-        <v>-5.45</v>
+        <v>-7.56</v>
       </c>
       <c r="L3">
-        <v>-0.1036121673003802</v>
+        <v>-0.04669549104385422</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.23</v>
+        <v>5.21</v>
       </c>
       <c r="V3">
-        <v>0.09787878787878788</v>
+        <v>0.1069815195071868</v>
       </c>
       <c r="W3">
-        <v>-0.9316239316239318</v>
+        <v>2.719424460431655</v>
       </c>
       <c r="X3">
-        <v>0.412187514122686</v>
+        <v>0.1885631981122214</v>
       </c>
       <c r="Y3">
-        <v>-1.343811445746618</v>
+        <v>2.530861262319433</v>
       </c>
       <c r="Z3">
-        <v>0.4696428571428572</v>
+        <v>1.833729754219051</v>
       </c>
       <c r="AA3">
-        <v>-0.1660714285714286</v>
+        <v>-0.1028429040661457</v>
       </c>
       <c r="AB3">
-        <v>0.1397314632422371</v>
+        <v>0.1029841616526407</v>
       </c>
       <c r="AC3">
-        <v>-0.3058028918136657</v>
+        <v>-0.2058270657187863</v>
       </c>
       <c r="AD3">
-        <v>113.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>113.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="AG3">
-        <v>110.57</v>
+        <v>65.19000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.7752043596730245</v>
+        <v>0.5910999160369438</v>
       </c>
       <c r="AI3">
-        <v>0.9887054735013032</v>
+        <v>0.9777777777777779</v>
       </c>
       <c r="AJ3">
-        <v>0.770146966636484</v>
+        <v>0.5723944156642374</v>
       </c>
       <c r="AK3">
-        <v>0.9883793689103424</v>
+        <v>0.9760443180116785</v>
       </c>
       <c r="AL3">
-        <v>6.64</v>
+        <v>8.32</v>
       </c>
       <c r="AM3">
-        <v>6.633999999999999</v>
+        <v>8.319000000000001</v>
       </c>
       <c r="AN3">
-        <v>-7.848275862068966</v>
+        <v>-32</v>
       </c>
       <c r="AO3">
-        <v>-2.801204819277109</v>
+        <v>-1.091346153846154</v>
       </c>
       <c r="AP3">
-        <v>-7.62551724137931</v>
+        <v>-29.63181818181819</v>
       </c>
       <c r="AQ3">
-        <v>-2.80373831775701</v>
+        <v>-1.091477341026566</v>
       </c>
     </row>
   </sheetData>
